--- a/public/cohort/fileExcel/xlsxUIT/OPEN/BTE_OPEN.xlsx
+++ b/public/cohort/fileExcel/xlsxUIT/OPEN/BTE_OPEN.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="86">
   <si>
     <t>betekenis kleuren</t>
   </si>
@@ -907,13 +907,13 @@
     <t>mavo?</t>
   </si>
   <si>
-    <t>Thematische praktische opdracht 1</t>
+    <t>Thematische praktische opdracht met diverse materialen binnen het thema</t>
   </si>
   <si>
     <t>Zie opmerkingen</t>
   </si>
   <si>
-    <t>Expo Beeldende vakken Hoofdstuk 1 en 2</t>
+    <t>Expo beeldende vakken Hoofdstuk 1 en 2</t>
   </si>
   <si>
     <t>K8</t>
@@ -923,10 +923,26 @@
 </t>
   </si>
   <si>
+    <t>Expo beeldende vakken Hoofdstuk 3, 3.1-3.4</t>
+  </si>
+  <si>
+    <t>Thematische praktische opdracht 3 (proefexamen)</t>
+  </si>
+  <si>
+    <t>Expo beeldende vakken Hoofdstuk 3,  3.5-3.8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stappenplan: onderzoek probleemstelling, oriëntatie beeldend onderzoek, uitvoering, reflectie, presentatie.
+</t>
+  </si>
+  <si>
+    <t>Thematische praktische opdracht 1</t>
+  </si>
+  <si>
+    <t>Expo Beeldende vakken Hoofdstuk 1 en 2</t>
+  </si>
+  <si>
     <t>Expo Beeldende vakken Hoofdstuk 3, 3.1-3.4</t>
-  </si>
-  <si>
-    <t>Thematische praktische opdracht 3 (proefexamen)</t>
   </si>
   <si>
     <t>Expo Beeldende vakken Hoofdstuk 3,  3.5-3.8</t>
@@ -2660,7 +2676,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44379.602384259</v>
+        <v>44385.633449074</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -3139,7 +3155,7 @@
         <v>1</v>
       </c>
       <c r="O19" s="31" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="P19" s="32" t="s">
         <v>75</v>
@@ -3321,7 +3337,7 @@
         <v>1</v>
       </c>
       <c r="O21" s="31" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="P21" s="32" t="s">
         <v>75</v>
@@ -3503,7 +3519,7 @@
         <v>1</v>
       </c>
       <c r="O23" s="31" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="P23" s="32" t="s">
         <v>75</v>
@@ -3618,7 +3634,9 @@
       <c r="AE25" s="7"/>
     </row>
     <row r="26" spans="1:32" customHeight="1" ht="72">
-      <c r="G26" s="48"/>
+      <c r="G26" s="48" t="s">
+        <v>80</v>
+      </c>
       <c r="H26" s="48"/>
       <c r="I26" s="48"/>
       <c r="J26" s="48"/>
@@ -4950,7 +4968,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44379.602384259</v>
+        <v>44385.633449074</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -5322,7 +5340,7 @@
         <v>1</v>
       </c>
       <c r="H18" s="28" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="I18" s="45"/>
       <c r="J18" s="29" t="s">
@@ -5412,7 +5430,7 @@
         <v>1</v>
       </c>
       <c r="H19" s="28" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="I19" s="45"/>
       <c r="J19" s="29" t="s">
@@ -5429,7 +5447,7 @@
         <v>1</v>
       </c>
       <c r="O19" s="31" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="P19" s="32" t="s">
         <v>75</v>
@@ -5594,7 +5612,7 @@
         <v>2</v>
       </c>
       <c r="H21" s="28" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="I21" s="45"/>
       <c r="J21" s="29" t="s">
@@ -5611,7 +5629,7 @@
         <v>1</v>
       </c>
       <c r="O21" s="31" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="P21" s="32" t="s">
         <v>75</v>
@@ -5776,7 +5794,7 @@
         <v>3</v>
       </c>
       <c r="H23" s="28" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="I23" s="45"/>
       <c r="J23" s="29" t="s">
@@ -5793,7 +5811,7 @@
         <v>1</v>
       </c>
       <c r="O23" s="31" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="P23" s="32" t="s">
         <v>75</v>
@@ -5909,7 +5927,7 @@
     </row>
     <row r="26" spans="1:32" customHeight="1" ht="72">
       <c r="G26" s="48" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="H26" s="48"/>
       <c r="I26" s="48"/>

--- a/public/cohort/fileExcel/xlsxUIT/OPEN/BTE_OPEN.xlsx
+++ b/public/cohort/fileExcel/xlsxUIT/OPEN/BTE_OPEN.xlsx
@@ -2676,7 +2676,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44385.633449074</v>
+        <v>44387.76619213</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -4968,7 +4968,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44385.633449074</v>
+        <v>44387.76619213</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
